--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_16_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_16_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.7620366735324393, 3.5554377444996885]</t>
+          <t>[2.7466455148220694, 3.5708289032100584]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.06036230200385617, 0.49711561017991546]</t>
+          <t>[0.06039769184348609, 0.49708022034028554]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.01352353103872383</v>
+        <v>0.0135093956649448</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01352353103872383</v>
+        <v>0.0135093956649448</v>
       </c>
       <c r="W2" t="n">
         <v>4.175455455455534</v>
